--- a/Virtual Labs.xlsx
+++ b/Virtual Labs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Material_general\Optum Global\Optum_oct_24\Optum_Global_Oct_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D3B3E1-4514-440B-B503-1FD83C013C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657F5865-62CF-48EE-9F5E-2A579E44BFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33420" yWindow="-180" windowWidth="29160" windowHeight="15840" xr2:uid="{C083B8C8-F676-4C0E-9C18-614DC8B4BC56}"/>
+    <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C083B8C8-F676-4C0E-9C18-614DC8B4BC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>Lab login URL</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Taushif</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Aniket</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -757,7 +763,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -770,11 +776,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -794,7 +800,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -806,9 +812,7 @@
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
@@ -1027,7 +1031,9 @@
       <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
@@ -1042,7 +1048,9 @@
       <c r="D17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
@@ -1057,7 +1065,9 @@
       <c r="D18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">

--- a/Virtual Labs.xlsx
+++ b/Virtual Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Material_general\Optum Global\Optum_oct_24\Optum_Global_Oct_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657F5865-62CF-48EE-9F5E-2A579E44BFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B160B9-6529-4EFC-8740-F2521A3A520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C083B8C8-F676-4C0E-9C18-614DC8B4BC56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
   <si>
     <t>Lab login URL</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>Aniket</t>
+  </si>
+  <si>
+    <t>Gowri</t>
+  </si>
+  <si>
+    <t>Surbhi</t>
+  </si>
+  <si>
+    <t>Vikjay</t>
+  </si>
+  <si>
+    <t>Rinki</t>
   </si>
 </sst>
 </file>
@@ -763,7 +775,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1082,7 +1094,9 @@
       <c r="D19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
@@ -1097,7 +1111,9 @@
       <c r="D20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
@@ -1112,7 +1128,9 @@
       <c r="D21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
@@ -1127,7 +1145,9 @@
       <c r="D22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">

--- a/Virtual Labs.xlsx
+++ b/Virtual Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Material_general\Optum Global\Optum_oct_24\Optum_Global_Oct_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B160B9-6529-4EFC-8740-F2521A3A520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C8E0B0-0426-4DC1-AA0F-2CD093E64005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C083B8C8-F676-4C0E-9C18-614DC8B4BC56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>Lab login URL</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Rinki</t>
+  </si>
+  <si>
+    <t>Manasa</t>
   </si>
 </sst>
 </file>
@@ -774,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241A744C-0EB1-416B-A251-D052F1E25579}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1162,7 +1165,9 @@
       <c r="D23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
